--- a/biology/Zoologie/Cirrhitichthys_aprinus/Cirrhitichthys_aprinus.xlsx
+++ b/biology/Zoologie/Cirrhitichthys_aprinus/Cirrhitichthys_aprinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cirrhitichthys aprinus · Épervier à taches rouges
-Cirrhitichthys aprinus, communément nommé Épervier à taches rouges[2], est une espèce de poissons marins de la famille des Cirrhitidae soit les poissons-faucons ou poissons-éperviers. Leur nom vernaculaire est issu de leur technique de chasse consistant à rester immobile dans le récif et à fondre sur leur proie en une brusque accélération dès que celle-ci devient accessible.
+Cirrhitichthys aprinus, communément nommé Épervier à taches rouges, est une espèce de poissons marins de la famille des Cirrhitidae soit les poissons-faucons ou poissons-éperviers. Leur nom vernaculaire est issu de leur technique de chasse consistant à rester immobile dans le récif et à fondre sur leur proie en une brusque accélération dès que celle-ci devient accessible.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Épervier à taches rouges est présent dans les eaux tropicales de la région Indo-Ouest Pacifique soit des Maldives à la Grande barrière de corail[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Épervier à taches rouges est présent dans les eaux tropicales de la région Indo-Ouest Pacifique soit des Maldives à la Grande barrière de corail.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa taille maximale est de 12,5 cm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa taille maximale est de 12,5 cm.
 </t>
         </is>
       </c>
